--- a/SPRING 20/CSE 208/online_attendance_cse208_sec2.xlsx
+++ b/SPRING 20/CSE 208/online_attendance_cse208_sec2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ulab_course_materials\SPRING 20\CSE 208\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791A7AE7-1127-4CEB-8050-8B6037FCB173}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AAE218-EF8E-4A59-B129-1036D96D41E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="57">
   <si>
     <t>SL</t>
   </si>
@@ -172,18 +172,52 @@
   </si>
   <si>
     <t>23.03.2020</t>
+  </si>
+  <si>
+    <t>30.03.2020</t>
+  </si>
+  <si>
+    <t>Marks</t>
+  </si>
+  <si>
+    <t>Mid Marks</t>
+  </si>
+  <si>
+    <t>Mid Impact Raw</t>
+  </si>
+  <si>
+    <t>Mid Impact</t>
+  </si>
+  <si>
+    <t>Attendance</t>
+  </si>
+  <si>
+    <t>Mid Total</t>
+  </si>
+  <si>
+    <t>Convert to</t>
+  </si>
+  <si>
+    <t>Free Marks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="ARIAL"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -227,67 +261,56 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{86D6F9D4-BA8B-4081-9CB2-AB39198550EE}"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <font>
-        <color theme="0"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -693,23 +716,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="7.77734375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" style="7" customWidth="1"/>
     <col min="3" max="3" width="30.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="10" style="10"/>
-    <col min="6" max="16384" width="10" style="1"/>
+    <col min="4" max="4" width="14.77734375" style="7" customWidth="1"/>
+    <col min="5" max="6" width="14.77734375" style="9" customWidth="1"/>
+    <col min="7" max="12" width="10" style="1"/>
+    <col min="13" max="13" width="10.77734375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -722,688 +750,2244 @@
       <c r="D1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="F1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>151014006</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="D2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="1">
+        <v>151014006</v>
+      </c>
+      <c r="I2" s="1">
+        <f>IF(D2="p",2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="shared" ref="J2:K17" si="0">IF(E2="p",2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="K2" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L2" s="1">
+        <f>SUM(I2:K2)</f>
+        <v>6</v>
+      </c>
+      <c r="M2" s="1">
+        <v>20</v>
+      </c>
+      <c r="N2" s="1">
+        <f>(M2/$E$55)*$E$56</f>
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="O2" s="1">
+        <f>ROUND(N2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="P2" s="1">
+        <f>L2+O2+$E$57</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
         <v>153014026</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="D3" s="6"/>
+      <c r="E3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="1">
+        <v>153014026</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:K43" si="1">IF(D3="p",2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L43" si="2">SUM(I3:K3)</f>
+        <v>4</v>
+      </c>
+      <c r="M3" s="1">
+        <v>20</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:N43" si="3">(M3/$E$55)*$E$56</f>
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:O43" si="4">ROUND(N3,0)</f>
+        <v>6</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P43" si="5">L3+O3+$E$57</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>161014009</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="D4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="1">
+        <v>161014009</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="M4" s="1">
+        <v>20</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="3"/>
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
         <v>163014012</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="D5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="1">
+        <v>163014012</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M5" s="1">
+        <v>20</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="3"/>
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>171014056</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7">
+      <c r="D6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="1">
+        <v>171014056</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M6" s="1">
+        <v>22</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="3"/>
+        <v>6.16</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
         <v>172014050</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="D7" s="6"/>
+      <c r="F7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="1">
+        <v>172014050</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>173014003</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="D8" s="6"/>
+      <c r="G8" s="1">
+        <v>173014003</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>19</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="3"/>
+        <v>5.32</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>181014026</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="D9" s="6"/>
+      <c r="F9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="1">
+        <v>181014026</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M9" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="3"/>
+        <v>4.34</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>181014093</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="D10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="1">
+        <v>181014093</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M10" s="1">
+        <v>18</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="3"/>
+        <v>5.04</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>181014122</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="D11" s="6"/>
+      <c r="E11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="1">
+        <v>181014122</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>181014127</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="D12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="1">
+        <v>181014127</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M12" s="1">
+        <v>17</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="3"/>
+        <v>4.7600000000000007</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>182014017</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="D13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="1">
+        <v>182014017</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M13" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="3"/>
+        <v>5.46</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>182014025</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="D14" s="6"/>
+      <c r="G14" s="1">
+        <v>182014025</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>182014036</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="D15" s="6"/>
+      <c r="G15" s="1">
+        <v>182014036</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>182014061</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="D16" s="6"/>
+      <c r="G16" s="1">
+        <v>182014061</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>183014006</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="D17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="1">
+        <v>183014006</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M17" s="1">
+        <v>22</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="3"/>
+        <v>6.16</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>183014010</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="D18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="1">
+        <v>183014010</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M18" s="1">
+        <v>23</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="3"/>
+        <v>6.44</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>183014023</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="D19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="1">
+        <v>183014023</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M19" s="1">
+        <v>23</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="3"/>
+        <v>6.44</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>183014026</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="D20" s="6"/>
+      <c r="G20" s="1">
+        <v>183014026</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>183014029</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="D21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="1">
+        <v>183014029</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M21" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="3"/>
+        <v>4.8999999999999995</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>183014061</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="D22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="1">
+        <v>183014061</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M22" s="1">
+        <v>19</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="3"/>
+        <v>5.32</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>191014005</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="D23" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="1">
+        <v>191014005</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M23" s="1">
+        <v>19</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="3"/>
+        <v>5.32</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>191014006</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="D24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="1">
+        <v>191014006</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M24" s="1">
+        <v>16</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="3"/>
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>191014008</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="D25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="1">
+        <v>191014008</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M25" s="1">
+        <v>20</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="3"/>
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <v>191014009</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="D26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="1">
+        <v>191014009</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M26" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="3"/>
+        <v>5.7399999999999993</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <v>191014012</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="D27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="1">
+        <v>191014012</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M27" s="1">
+        <v>24</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="3"/>
+        <v>6.72</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="P27" s="1">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <v>191014017</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="D28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="1">
+        <v>191014017</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M28" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" si="3"/>
+        <v>5.18</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="P28" s="1">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="6">
         <v>191014020</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="D29" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="1">
+        <v>191014020</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M29" s="1">
+        <v>20</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" si="3"/>
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="P29" s="1">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="6">
         <v>191014022</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="D30" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="1">
+        <v>191014022</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M30" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" si="3"/>
+        <v>5.46</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="P30" s="1">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="6">
         <v>191014034</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="D31" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="1">
+        <v>191014034</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M31" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="N31" s="1">
+        <f t="shared" si="3"/>
+        <v>5.18</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="P31" s="1">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="6">
         <v>191014041</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="D32" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="1">
+        <v>191014041</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M32" s="1">
+        <v>18</v>
+      </c>
+      <c r="N32" s="1">
+        <f t="shared" si="3"/>
+        <v>5.04</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="P32" s="1">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="6">
         <v>191014042</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+      <c r="D33" s="6"/>
+      <c r="G33" s="1">
+        <v>191014042</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>20</v>
+      </c>
+      <c r="N33" s="1">
+        <f t="shared" si="3"/>
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="P33" s="1">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="6">
         <v>191014045</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+      <c r="D34" s="6"/>
+      <c r="E34" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="1">
+        <v>191014045</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L34" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M34" s="1">
+        <v>20</v>
+      </c>
+      <c r="N34" s="1">
+        <f t="shared" si="3"/>
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="O34" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="P34" s="1">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="6">
         <v>191014046</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="7"/>
-    </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+      <c r="D35" s="6"/>
+      <c r="G35" s="1">
+        <v>191014046</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>15</v>
+      </c>
+      <c r="N35" s="1">
+        <f t="shared" si="3"/>
+        <v>4.2</v>
+      </c>
+      <c r="O35" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="P35" s="1">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="6">
         <v>191014057</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
+      <c r="D36" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" s="1">
+        <v>191014057</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J36" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L36" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M36" s="1">
+        <v>18</v>
+      </c>
+      <c r="N36" s="1">
+        <f t="shared" si="3"/>
+        <v>5.04</v>
+      </c>
+      <c r="O36" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="P36" s="1">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="6">
         <v>191014061</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+      <c r="D37" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="1">
+        <v>191014061</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J37" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L37" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M37" s="1">
+        <v>22</v>
+      </c>
+      <c r="N37" s="1">
+        <f t="shared" si="3"/>
+        <v>6.16</v>
+      </c>
+      <c r="O37" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="P37" s="1">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="6">
         <v>191014067</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
+      <c r="D38" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" s="1">
+        <v>191014067</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J38" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K38" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L38" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M38" s="1">
+        <v>21</v>
+      </c>
+      <c r="N38" s="1">
+        <f t="shared" si="3"/>
+        <v>5.88</v>
+      </c>
+      <c r="O38" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="P38" s="1">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="6">
         <v>191014068</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="7"/>
-    </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
+      <c r="D39" s="6"/>
+      <c r="G39" s="1">
+        <v>191014068</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>15</v>
+      </c>
+      <c r="N39" s="1">
+        <f t="shared" si="3"/>
+        <v>4.2</v>
+      </c>
+      <c r="O39" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="P39" s="1">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="6">
         <v>191014070</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+      <c r="D40" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G40" s="1">
+        <v>191014070</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J40" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K40" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L40" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M40" s="1">
+        <v>22</v>
+      </c>
+      <c r="N40" s="1">
+        <f t="shared" si="3"/>
+        <v>6.16</v>
+      </c>
+      <c r="O40" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="P40" s="1">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="6">
         <v>191014073</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
+      <c r="D41" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41" s="1">
+        <v>191014073</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J41" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K41" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M41" s="1">
+        <v>23</v>
+      </c>
+      <c r="N41" s="1">
+        <f t="shared" si="3"/>
+        <v>6.44</v>
+      </c>
+      <c r="O41" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="P41" s="1">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="6">
         <v>192014046</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
+      <c r="D42" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G42" s="1">
+        <v>192014046</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J42" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L42" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M42" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="N42" s="1">
+        <f t="shared" si="3"/>
+        <v>5.7399999999999993</v>
+      </c>
+      <c r="O42" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="P42" s="1">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="6">
         <v>193014041</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="7"/>
-      <c r="D44" s="7">
+      <c r="D43" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G43" s="1">
+        <v>193014041</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J43" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L43" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M43" s="1">
+        <v>22</v>
+      </c>
+      <c r="N43" s="1">
+        <f t="shared" si="3"/>
+        <v>6.16</v>
+      </c>
+      <c r="O43" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="P43" s="1">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="6"/>
+      <c r="D44" s="6">
         <f>COUNTIF(D2:D43,"=p")</f>
         <v>29</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="6">
         <f>COUNTIF(E2:E43,"=p")</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="7"/>
-      <c r="D45" s="7"/>
-    </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="7"/>
-      <c r="D46" s="7"/>
-    </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F51" s="4"/>
+      <c r="F44" s="6">
+        <f>COUNTIF(F2:F43,"=p")</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="6"/>
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="6"/>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="6"/>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="55" spans="4:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D56" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E56" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D57" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E57" s="9">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="G2:G43">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$B2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
